--- a/tools/example_framework_UPDATE.xlsx
+++ b/tools/example_framework_UPDATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D2212C-28BD-4DE7-8423-12AE28008595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E84FA-4087-B447-A57E-5C81AC9A5129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20400" tabRatio="907" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -177,7 +177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: About assessable :.</t>
         </r>
@@ -186,7 +186,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Must be "x" or empty. If "x", the requirement will be assessable. </t>
@@ -249,7 +249,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: About description :.</t>
         </r>
@@ -258,7 +258,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The "name" value can be left empty, but only if "ref_id" and/or "name" is not empty.</t>
@@ -273,7 +273,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: About importance :.</t>
         </r>
@@ -282,7 +282,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 One among "mandatory"/"recommended"/"nice to have"/"undefined" or empty (= "undefined"). Default value is "undefined".</t>
@@ -297,7 +297,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: About weight :.</t>
         </r>
@@ -306,7 +306,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Positive integer "&gt;= 1". Used for score weighting. The default weight (if undefined) is "1".</t>
@@ -391,7 +391,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -400,18 +400,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Format: "line_where_the_requirement_containing_the_question_is</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Format: "line_where_the_requirement_containing_the_question_is</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -420,7 +429,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -430,7 +439,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -439,18 +448,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">choice_line"
-Set one among "UNDEFINED"/"undefined" if the question depends on nothing. See cell note at </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set one among "UNDEFINED"/"undefined" if the question depends on nothing. See cell note at </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -459,7 +477,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -523,7 +541,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: 1st Line :.</t>
         </r>
@@ -532,7 +550,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Means that the </t>
@@ -552,7 +570,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (Where is it?) depends on nothing.
 </t>
@@ -572,7 +590,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Means that the </t>
@@ -592,7 +610,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (Who is it?) depends on the questions of the requirement at </t>
         </r>
@@ -611,7 +629,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">&gt; </t>
         </r>
@@ -630,7 +648,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (Is the Exception respected?) -&gt; </t>
         </r>
@@ -649,7 +667,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> for the question (Yes).
 </t>
@@ -669,7 +687,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Means that the </t>
@@ -689,7 +707,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (What is it?) depends on the questions of the requirement at </t>
         </r>
@@ -708,7 +726,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> -&gt; </t>
         </r>
@@ -727,7 +745,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (Name of 2nd department?) -&gt; </t>
         </r>
@@ -746,7 +764,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> for the question (COR-A9)</t>
         </r>
@@ -770,7 +788,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: About default_selected :.</t>
         </r>
@@ -779,7 +797,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Must be "x" or empty. If "x", the implementation group is selected by default when creating an audit with the framework.</t>
@@ -852,7 +870,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: About description :.</t>
         </r>
@@ -861,7 +879,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Usable if question_type is "unique_choice" or "multiple_choice".
@@ -877,7 +895,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.:  About select_implementation_groups :.</t>
         </r>
@@ -886,7 +904,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Usable if question_type is "unique_choice" or "multiple_choice".
@@ -900,22 +918,40 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: About add_score :.</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Usable if question_type is "unique_choice" or "multiple_choice".
-Positive or negative integer. The score is calculated based on this choice. All values selected within a requirement assessment are summed, and the sum is clipped by the scale. Each score is separated by line breaks.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Usable if question_type is "unique_choice" or "multiple_choice".
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Positive or negative integer. The score is calculated based on this choice. All values selected within a requirement assessment are summed, and the sum is clipped by the scale. Each score is separated by line breaks.</t>
         </r>
       </text>
     </comment>
@@ -927,7 +963,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>.: Aboout compute_result :.</t>
         </r>
@@ -936,7 +972,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Usable if question_type is "unique_choice" or "multiple_choice".
@@ -1113,7 +1149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="679">
   <si>
     <t>type</t>
   </si>
@@ -3042,9 +3078,6 @@
     <t>Groupe de Test 3</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -3286,17 +3319,11 @@
 13</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>testgrp1
 testgrp1
 testgrp3</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>#cc18b1</t>
   </si>
   <si>
@@ -3340,9 +3367,6 @@
     <t>Description
 | on multiple lines
 | for every choice 2</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>grp003, testgrp2</t>
@@ -3673,17 +3697,17 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -3965,7 +3989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4169,6 +4193,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4187,24 +4319,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4214,15 +4328,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4240,88 +4345,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4331,7 +4354,7 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4344,208 +4367,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -5084,6 +4905,206 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -5336,6 +5357,26 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -5373,24 +5414,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5639,10 +5662,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:S51" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="A1:S51" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
@@ -5655,11 +5674,11 @@
     <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="69"/>
     <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="68"/>
     <tableColumn id="19" xr3:uid="{DFBF3465-BE6B-4017-8F87-57A82780A75B}" name="importance" dataDxfId="67"/>
-    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="64"/>
-    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="63"/>
-    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="64"/>
+    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="63"/>
     <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="62"/>
     <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="61"/>
     <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="60"/>
@@ -5687,24 +5706,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A1:H32" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A1:E1048576" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{881914C9-040C-42B4-91FE-05BC90988F70}" name="score"/>
@@ -5718,45 +5737,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21DED0C8-7237-47BF-8873-738C4400D3DB}" name="Tableau14" displayName="Tableau14" ref="A1:G26" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21DED0C8-7237-47BF-8873-738C4400D3DB}" name="Tableau14" displayName="Tableau14" ref="A1:G26" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A1:G26" xr:uid="{32B00483-E3F9-4C14-B125-41886D9D0F23}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F9E1637-D442-4022-8B78-23492F1B2FD4}" name="ref_id" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{1990900A-E9A9-4853-8F63-DC439067075E}" name="name" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{E03E16C2-E13E-458D-A24A-3C34A91E3DF2}" name="description" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{5ECFEFFA-B045-45BD-A6D7-4E11C3283380}" name="annotation" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{4F645D7B-245A-416B-9E6F-06323318E6E2}" name="name[fr]" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{E7094BA8-F77D-4F12-A3F8-7928936A0D2E}" name="description[fr]" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{B9C14FC4-B603-427E-A7F4-CACF10F7A085}" name="annotation[fr]" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{2F9E1637-D442-4022-8B78-23492F1B2FD4}" name="ref_id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1990900A-E9A9-4853-8F63-DC439067075E}" name="name" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{E03E16C2-E13E-458D-A24A-3C34A91E3DF2}" name="description" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{5ECFEFFA-B045-45BD-A6D7-4E11C3283380}" name="annotation" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{4F645D7B-245A-416B-9E6F-06323318E6E2}" name="name[fr]" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{E7094BA8-F77D-4F12-A3F8-7928936A0D2E}" name="description[fr]" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{B9C14FC4-B603-427E-A7F4-CACF10F7A085}" name="annotation[fr]" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DCAA1FD-DB86-4E15-8E31-AC99AB9F45D4}" name="Tableau3" displayName="Tableau3" ref="A1:I27" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DCAA1FD-DB86-4E15-8E31-AC99AB9F45D4}" name="Tableau3" displayName="Tableau3" ref="A1:I27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A1:I27" xr:uid="{4748F8BA-F2F9-4976-90F0-1D6F9F26191B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15A5B4EF-24CA-4813-9A39-8D55A540B838}" name="ref_id" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{541E38F3-C3CB-49DA-B177-2A1749008A5B}" name="name" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{F2BC8545-6F89-4E86-8E77-5E4AA7C0033E}" name="category" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{2D6C7622-7C26-46E8-BA06-DC874E602ECA}" name="csf_function" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{8B114798-8119-45A5-AC98-80691A7F5743}" name="description" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{3B24CD29-2024-4E6C-8EA8-A2A27F71DB45}" name="annotation" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{6D87C08C-7195-4695-A258-EC8C5FBA7769}" name="name[fr]" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{05DA7DF2-5885-4810-9061-18E2243F317E}" name="description[fr]" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{4E63784C-6489-4DCD-AFDF-2126BE436F13}" name="annotation[fr]" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{15A5B4EF-24CA-4813-9A39-8D55A540B838}" name="ref_id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{541E38F3-C3CB-49DA-B177-2A1749008A5B}" name="name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F2BC8545-6F89-4E86-8E77-5E4AA7C0033E}" name="category" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2D6C7622-7C26-46E8-BA06-DC874E602ECA}" name="csf_function" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{8B114798-8119-45A5-AC98-80691A7F5743}" name="description" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3B24CD29-2024-4E6C-8EA8-A2A27F71DB45}" name="annotation" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{6D87C08C-7195-4695-A258-EC8C5FBA7769}" name="name[fr]" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{05DA7DF2-5885-4810-9061-18E2243F317E}" name="description[fr]" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{4E63784C-6489-4DCD-AFDF-2126BE436F13}" name="annotation[fr]" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}" name="Tableau7" displayName="Tableau7" ref="A1:B4" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}" name="Tableau7" displayName="Tableau7" ref="A1:B4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:B4" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{438C028E-BBB1-42A6-99B2-250AC16AFAC2}" name="prefix_id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A29B1659-A5F7-4CB7-96A6-4F3536BCB6B5}" name="prefix_value" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{438C028E-BBB1-42A6-99B2-250AC16AFAC2}" name="prefix_id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A29B1659-A5F7-4CB7-96A6-4F3536BCB6B5}" name="prefix_value" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6056,387 +6075,407 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="13" max="13" width="34.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="13" max="13" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:13" ht="64" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
-    </row>
-    <row r="2" spans="1:13" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
+    </row>
+    <row r="2" spans="1:13" ht="42.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
+    </row>
+    <row r="3" spans="1:13" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="83" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="83" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="89" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="85"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="103" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="83" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="85"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
+    </row>
+    <row r="7" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="83" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="85"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="113" t="s">
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
+    </row>
+    <row r="8" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="83" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="85"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="112" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
+    </row>
+    <row r="9" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="83" t="s">
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="85"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107" t="s">
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
+    </row>
+    <row r="10" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="83" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108" t="s">
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="91"/>
+    </row>
+    <row r="11" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="83" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="85"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="109" t="s">
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
+    </row>
+    <row r="12" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="83" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
+    </row>
+    <row r="13" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="114" t="s">
         <v>547</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-    </row>
-    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="86" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+    </row>
+    <row r="14" spans="1:13" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="98" t="s">
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="112"/>
+    </row>
+    <row r="15" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="83" t="s">
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
+    </row>
+    <row r="16" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="83" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="85"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="91"/>
+    </row>
+    <row r="17" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="83" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="85"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="89" t="s">
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="91"/>
+    </row>
+    <row r="18" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="83" t="s">
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80" t="s">
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="91"/>
+    </row>
+    <row r="19" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83" t="s">
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="85"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="77" t="s">
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="91"/>
+    </row>
+    <row r="20" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78" t="s">
+      <c r="B20" s="113"/>
+      <c r="C20" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+    </row>
+    <row r="21" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -6453,26 +6492,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6490,17 +6509,17 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="54.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="49.83203125" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>225</v>
       </c>
@@ -6518,7 +6537,7 @@
       </c>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38">
         <v>0</v>
       </c>
@@ -6537,7 +6556,7 @@
       <c r="F2" s="45"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -6556,7 +6575,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="46"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -6575,7 +6594,7 @@
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -6594,7 +6613,7 @@
       <c r="F5" s="45"/>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -6613,7 +6632,7 @@
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -6632,7 +6651,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="44"/>
     </row>
   </sheetData>
@@ -6654,13 +6673,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6668,7 +6687,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6693,19 +6712,19 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="44" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="44" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.109375" style="44" customWidth="1"/>
+    <col min="9" max="10" width="17.1640625" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
@@ -6728,7 +6747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>285</v>
       </c>
@@ -6753,7 +6772,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>286</v>
       </c>
@@ -6776,7 +6795,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
         <v>287</v>
       </c>
@@ -6799,7 +6818,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>288</v>
       </c>
@@ -6820,7 +6839,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>289</v>
       </c>
@@ -6841,7 +6860,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
         <v>301</v>
       </c>
@@ -6862,7 +6881,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>302</v>
       </c>
@@ -6883,7 +6902,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
         <v>290</v>
       </c>
@@ -6904,7 +6923,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
         <v>291</v>
       </c>
@@ -6927,7 +6946,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="61" t="s">
         <v>292</v>
       </c>
@@ -6950,7 +6969,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="61" t="s">
         <v>293</v>
       </c>
@@ -6973,7 +6992,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="61" t="s">
         <v>294</v>
       </c>
@@ -6996,7 +7015,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="61" t="s">
         <v>295</v>
       </c>
@@ -7019,7 +7038,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="61" t="s">
         <v>296</v>
       </c>
@@ -7042,7 +7061,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="61" t="s">
         <v>297</v>
       </c>
@@ -7065,7 +7084,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="61" t="s">
         <v>298</v>
       </c>
@@ -7088,7 +7107,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="61" t="s">
         <v>299</v>
       </c>
@@ -7111,7 +7130,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
         <v>300</v>
       </c>
@@ -7132,7 +7151,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
         <v>303</v>
       </c>
@@ -7157,7 +7176,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="61" t="s">
         <v>304</v>
       </c>
@@ -7180,7 +7199,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="61" t="s">
         <v>305</v>
       </c>
@@ -7203,7 +7222,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="61" t="s">
         <v>306</v>
       </c>
@@ -7224,7 +7243,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="61" t="s">
         <v>307</v>
       </c>
@@ -7245,7 +7264,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="61" t="s">
         <v>308</v>
       </c>
@@ -7266,7 +7285,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="61" t="s">
         <v>309</v>
       </c>
@@ -7308,13 +7327,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7322,7 +7341,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7348,20 +7367,20 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="57" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
@@ -7390,7 +7409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>400</v>
       </c>
@@ -7415,7 +7434,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>401</v>
       </c>
@@ -7436,7 +7455,7 @@
       </c>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>402</v>
       </c>
@@ -7459,7 +7478,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>403</v>
       </c>
@@ -7482,7 +7501,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>404</v>
       </c>
@@ -7505,7 +7524,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>405</v>
       </c>
@@ -7528,7 +7547,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>406</v>
       </c>
@@ -7551,7 +7570,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>523</v>
       </c>
@@ -7570,7 +7589,7 @@
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>422</v>
       </c>
@@ -7593,7 +7612,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>424</v>
       </c>
@@ -7618,7 +7637,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>435</v>
       </c>
@@ -7643,7 +7662,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>436</v>
       </c>
@@ -7668,7 +7687,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>437</v>
       </c>
@@ -7693,7 +7712,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>438</v>
       </c>
@@ -7718,7 +7737,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>439</v>
       </c>
@@ -7745,7 +7764,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>440</v>
       </c>
@@ -7772,7 +7791,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>441</v>
       </c>
@@ -7797,7 +7816,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>442</v>
       </c>
@@ -7820,7 +7839,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>443</v>
       </c>
@@ -7841,7 +7860,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>450</v>
       </c>
@@ -7870,7 +7889,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>451</v>
       </c>
@@ -7891,7 +7910,7 @@
       </c>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>452</v>
       </c>
@@ -7916,7 +7935,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>453</v>
       </c>
@@ -7937,7 +7956,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>454</v>
       </c>
@@ -7958,7 +7977,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>455</v>
       </c>
@@ -7979,7 +7998,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
         <v>456</v>
       </c>
@@ -8021,12 +8040,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8050,13 +8069,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>376</v>
       </c>
@@ -8064,7 +8083,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -8072,7 +8091,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>52</v>
       </c>
@@ -8080,7 +8099,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -8111,13 +8130,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8125,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8133,7 +8152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -8141,7 +8160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -8149,7 +8168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -8157,7 +8176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -8165,7 +8184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -8173,7 +8192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -8181,7 +8200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -8189,7 +8208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -8197,7 +8216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="76" t="s">
         <v>539</v>
       </c>
@@ -8205,7 +8224,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -8213,7 +8232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -8221,7 +8240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -8246,13 +8265,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8260,7 +8279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -8268,7 +8287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8276,7 +8295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -8284,7 +8303,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -8292,7 +8311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -8300,7 +8319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -8308,7 +8327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>187</v>
       </c>
@@ -8316,7 +8335,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
         <v>249</v>
       </c>
@@ -8324,7 +8343,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>250</v>
       </c>
@@ -8332,7 +8351,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>251</v>
       </c>
@@ -8340,7 +8359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
@@ -8348,7 +8367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
@@ -8372,35 +8391,35 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="29" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="44.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="29" customWidth="1"/>
-    <col min="17" max="17" width="31.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="29" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="29" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="69" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="29" customWidth="1"/>
+    <col min="17" max="17" width="31.83203125" style="29" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.1640625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -8438,7 +8457,7 @@
         <v>202</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="N1" s="67" t="s">
         <v>282</v>
@@ -8459,7 +8478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37"/>
       <c r="B2" s="38">
         <v>1</v>
@@ -8488,7 +8507,7 @@
       <c r="R2" s="38"/>
       <c r="S2" s="40"/>
     </row>
-    <row r="3" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="38" t="s">
         <v>52</v>
@@ -8527,7 +8546,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="38" t="s">
         <v>55</v>
@@ -8560,7 +8579,7 @@
       <c r="R4" s="38"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>51</v>
       </c>
@@ -8599,7 +8618,7 @@
       <c r="R5" s="38"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>51</v>
       </c>
@@ -8642,7 +8661,7 @@
       </c>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>51</v>
       </c>
@@ -8683,7 +8702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>51</v>
       </c>
@@ -8724,7 +8743,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>51</v>
       </c>
@@ -8755,7 +8774,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="40"/>
     </row>
-    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>51</v>
       </c>
@@ -8784,7 +8803,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="40"/>
     </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>51</v>
       </c>
@@ -8819,7 +8838,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="40"/>
     </row>
-    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>51</v>
       </c>
@@ -8852,7 +8871,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="40"/>
     </row>
-    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>51</v>
       </c>
@@ -8887,7 +8906,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="40"/>
     </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
         <v>57</v>
@@ -8916,7 +8935,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="40"/>
     </row>
-    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>51</v>
       </c>
@@ -8935,8 +8954,8 @@
       <c r="H15" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I15" s="37" t="s">
-        <v>68</v>
+      <c r="I15" s="37">
+        <v>5</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>38</v>
@@ -8957,7 +8976,7 @@
       </c>
       <c r="S15" s="40"/>
     </row>
-    <row r="16" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>51</v>
       </c>
@@ -8998,7 +9017,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>51</v>
       </c>
@@ -9041,7 +9060,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>51</v>
       </c>
@@ -9076,7 +9095,7 @@
       <c r="R18" s="38"/>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>51</v>
       </c>
@@ -9113,7 +9132,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="40"/>
     </row>
-    <row r="20" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>51</v>
       </c>
@@ -9148,7 +9167,7 @@
       <c r="R20" s="38"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>51</v>
       </c>
@@ -9179,7 +9198,7 @@
       <c r="R21" s="38"/>
       <c r="S21" s="40"/>
     </row>
-    <row r="22" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>68</v>
@@ -9214,7 +9233,7 @@
       <c r="R22" s="38"/>
       <c r="S22" s="40"/>
     </row>
-    <row r="23" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>51</v>
       </c>
@@ -9247,7 +9266,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="40"/>
     </row>
-    <row r="24" spans="1:19" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>51</v>
       </c>
@@ -9278,7 +9297,7 @@
       <c r="R24" s="38"/>
       <c r="S24" s="40"/>
     </row>
-    <row r="25" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>51</v>
       </c>
@@ -9309,7 +9328,7 @@
       <c r="R25" s="38"/>
       <c r="S25" s="40"/>
     </row>
-    <row r="26" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>51</v>
       </c>
@@ -9340,7 +9359,7 @@
       <c r="R26" s="38"/>
       <c r="S26" s="40"/>
     </row>
-    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>51</v>
       </c>
@@ -9371,7 +9390,7 @@
       <c r="R27" s="38"/>
       <c r="S27" s="40"/>
     </row>
-    <row r="28" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
         <v>55</v>
@@ -9402,7 +9421,7 @@
       <c r="R28" s="38"/>
       <c r="S28" s="40"/>
     </row>
-    <row r="29" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="38" t="s">
         <v>55</v>
@@ -9435,7 +9454,7 @@
       <c r="R29" s="38"/>
       <c r="S29" s="40"/>
     </row>
-    <row r="30" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
         <v>55</v>
@@ -9470,7 +9489,7 @@
       <c r="R30" s="38"/>
       <c r="S30" s="40"/>
     </row>
-    <row r="31" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
       <c r="B31" s="42" t="s">
         <v>55</v>
@@ -9505,7 +9524,7 @@
       <c r="R31" s="42"/>
       <c r="S31" s="70"/>
     </row>
-    <row r="32" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="42" t="s">
         <v>5</v>
@@ -9534,7 +9553,7 @@
       <c r="R32" s="42"/>
       <c r="S32" s="70"/>
     </row>
-    <row r="33" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
         <v>51</v>
       </c>
@@ -9575,7 +9594,7 @@
       <c r="R33" s="42"/>
       <c r="S33" s="70"/>
     </row>
-    <row r="34" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
         <v>51</v>
       </c>
@@ -9614,7 +9633,7 @@
       <c r="R34" s="38"/>
       <c r="S34" s="40"/>
     </row>
-    <row r="35" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
         <v>51</v>
       </c>
@@ -9653,7 +9672,7 @@
       <c r="R35" s="38"/>
       <c r="S35" s="40"/>
     </row>
-    <row r="36" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="38" t="s">
         <v>5</v>
@@ -9682,7 +9701,7 @@
       <c r="R36" s="38"/>
       <c r="S36" s="40"/>
     </row>
-    <row r="37" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
         <v>51</v>
       </c>
@@ -9717,7 +9736,7 @@
       <c r="R37" s="38"/>
       <c r="S37" s="40"/>
     </row>
-    <row r="38" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
         <v>51</v>
       </c>
@@ -9752,7 +9771,7 @@
       <c r="R38" s="38"/>
       <c r="S38" s="40"/>
     </row>
-    <row r="39" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
         <v>51</v>
       </c>
@@ -9785,16 +9804,16 @@
       <c r="R39" s="42"/>
       <c r="S39" s="70"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
@@ -9812,7 +9831,7 @@
       <c r="R40" s="38"/>
       <c r="S40" s="40"/>
     </row>
-    <row r="41" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>51</v>
       </c>
@@ -9821,7 +9840,7 @@
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
@@ -9830,13 +9849,13 @@
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
       <c r="K41" s="39" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L41" s="38" t="s">
         <v>559</v>
       </c>
       <c r="M41" s="39" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
@@ -9845,7 +9864,7 @@
       <c r="R41" s="38"/>
       <c r="S41" s="40"/>
     </row>
-    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
         <v>51</v>
       </c>
@@ -9854,7 +9873,7 @@
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="38" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -9863,10 +9882,10 @@
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
       <c r="K42" s="39" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="L42" s="39" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
@@ -9876,7 +9895,7 @@
       <c r="R42" s="38"/>
       <c r="S42" s="40"/>
     </row>
-    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
         <v>51</v>
       </c>
@@ -9885,7 +9904,7 @@
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="38" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -9894,10 +9913,10 @@
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
       <c r="K43" s="39" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="L43" s="39" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
@@ -9907,7 +9926,7 @@
       <c r="R43" s="38"/>
       <c r="S43" s="40"/>
     </row>
-    <row r="44" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
         <v>51</v>
       </c>
@@ -9916,7 +9935,7 @@
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="38" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
@@ -9925,10 +9944,10 @@
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
       <c r="K44" s="39" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L44" s="39" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
@@ -9938,7 +9957,7 @@
       <c r="R44" s="38"/>
       <c r="S44" s="40"/>
     </row>
-    <row r="45" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
         <v>51</v>
       </c>
@@ -9947,7 +9966,7 @@
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="38" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -9956,10 +9975,10 @@
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
       <c r="K45" s="39" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="L45" s="39" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
@@ -9969,7 +9988,7 @@
       <c r="R45" s="38"/>
       <c r="S45" s="40"/>
     </row>
-    <row r="46" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="s">
         <v>51</v>
       </c>
@@ -9978,7 +9997,7 @@
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="38" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -9987,10 +10006,10 @@
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
       <c r="K46" s="39" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M46" s="39"/>
       <c r="N46" s="39"/>
@@ -10000,7 +10019,7 @@
       <c r="R46" s="38"/>
       <c r="S46" s="40"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
         <v>51</v>
       </c>
@@ -10009,7 +10028,7 @@
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -10018,10 +10037,10 @@
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M47" s="38"/>
       <c r="N47" s="39"/>
@@ -10031,7 +10050,7 @@
       <c r="R47" s="38"/>
       <c r="S47" s="40"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
         <v>51</v>
       </c>
@@ -10040,7 +10059,7 @@
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="38" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
@@ -10049,10 +10068,10 @@
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M48" s="38"/>
       <c r="N48" s="39"/>
@@ -10062,7 +10081,7 @@
       <c r="R48" s="38"/>
       <c r="S48" s="40"/>
     </row>
-    <row r="49" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
         <v>51</v>
       </c>
@@ -10071,7 +10090,7 @@
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
@@ -10080,10 +10099,10 @@
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
       <c r="K49" s="39" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M49" s="38"/>
       <c r="N49" s="39"/>
@@ -10093,7 +10112,7 @@
       <c r="R49" s="38"/>
       <c r="S49" s="40"/>
     </row>
-    <row r="50" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
         <v>51</v>
       </c>
@@ -10102,7 +10121,7 @@
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="38" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
@@ -10111,10 +10130,10 @@
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
       <c r="K50" s="39" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="L50" s="39" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
@@ -10124,7 +10143,7 @@
       <c r="R50" s="38"/>
       <c r="S50" s="40"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
         <v>51</v>
       </c>
@@ -10133,7 +10152,7 @@
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
@@ -10142,10 +10161,10 @@
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M51" s="38"/>
       <c r="N51" s="39"/>
@@ -10179,12 +10198,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10192,7 +10211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -10217,17 +10236,17 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="30" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="30" customWidth="1"/>
     <col min="4" max="4" width="20" style="30" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
@@ -10247,7 +10266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
@@ -10265,7 +10284,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -10283,7 +10302,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -10297,7 +10316,7 @@
       </c>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>124</v>
       </c>
@@ -10315,7 +10334,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>562</v>
       </c>
@@ -10329,7 +10348,7 @@
       </c>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>563</v>
       </c>
@@ -10343,7 +10362,7 @@
       </c>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>564</v>
       </c>
@@ -10378,9 +10397,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10388,7 +10407,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -10408,24 +10427,24 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="117" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="117" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="117" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="117" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="117" customWidth="1"/>
-    <col min="6" max="6" width="19" style="117" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="117" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="117" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>189</v>
       </c>
@@ -10435,24 +10454,24 @@
       <c r="C1" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="78" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="78" t="s">
         <v>556</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="78" t="s">
         <v>558</v>
       </c>
-      <c r="H1" s="118" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="H1" s="78" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="79" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -10461,13 +10480,13 @@
       <c r="C2" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-    </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D2" s="86"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>199</v>
       </c>
@@ -10477,13 +10496,13 @@
       <c r="C3" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-    </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+    </row>
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>213</v>
       </c>
@@ -10493,13 +10512,13 @@
       <c r="C4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-    </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+    </row>
+    <row r="5" spans="1:8" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>528</v>
       </c>
@@ -10509,524 +10528,524 @@
       <c r="C5" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="119" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="79" t="s">
         <v>195</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>196</v>
       </c>
       <c r="C6" s="34"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-    </row>
-    <row r="8" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+    </row>
+    <row r="8" spans="1:8" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="79" t="s">
         <v>559</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>597</v>
-      </c>
-      <c r="D8" s="121" t="s">
-        <v>615</v>
-      </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="119" t="s">
+        <v>596</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>614</v>
+      </c>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="79" t="s">
         <v>560</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>598</v>
-      </c>
-      <c r="D9" s="121" t="s">
-        <v>626</v>
-      </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+        <v>597</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+    </row>
+    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="79" t="s">
         <v>561</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>599</v>
-      </c>
-      <c r="D10" s="120" t="s">
-        <v>614</v>
-      </c>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="119" t="s">
-        <v>574</v>
+        <v>598</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>613</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="79" t="s">
+        <v>573</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>600</v>
-      </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121" t="s">
+        <v>599</v>
+      </c>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81" t="s">
         <v>562</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-    </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="119" t="s">
-        <v>575</v>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="79" t="s">
+        <v>574</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121" t="s">
-        <v>616</v>
-      </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-    </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="119" t="s">
-        <v>576</v>
+        <v>611</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81" t="s">
+        <v>615</v>
+      </c>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="79" t="s">
+        <v>575</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>613</v>
-      </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121" t="s">
-        <v>617</v>
-      </c>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="119" t="s">
-        <v>577</v>
+        <v>612</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81" t="s">
+        <v>616</v>
+      </c>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="79" t="s">
+        <v>576</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121">
+        <v>617</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81">
         <v>10</v>
       </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-    </row>
-    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="119" t="s">
-        <v>579</v>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+    </row>
+    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="79" t="s">
+        <v>578</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="127" t="s">
-        <v>628</v>
-      </c>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-    </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="119" t="s">
-        <v>580</v>
+        <v>618</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="87" t="s">
+        <v>627</v>
+      </c>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="79" t="s">
+        <v>579</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>620</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121" t="s">
-        <v>572</v>
-      </c>
-      <c r="H16" s="121"/>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="119" t="s">
-        <v>581</v>
+        <v>619</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81" t="s">
+        <v>571</v>
+      </c>
+      <c r="H16" s="81"/>
+    </row>
+    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="79" t="s">
+        <v>580</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>621</v>
-      </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121" t="s">
-        <v>573</v>
-      </c>
-      <c r="H17" s="121"/>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="119" t="s">
-        <v>582</v>
+        <v>620</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81" t="s">
+        <v>572</v>
+      </c>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="79" t="s">
+        <v>581</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>622</v>
-      </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121" t="s">
-        <v>639</v>
-      </c>
-      <c r="H18" s="121"/>
-    </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
-        <v>583</v>
+        <v>621</v>
+      </c>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81" t="s">
+        <v>636</v>
+      </c>
+      <c r="H18" s="81"/>
+    </row>
+    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="79" t="s">
+        <v>582</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="119" t="s">
-        <v>584</v>
+        <v>622</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="79" t="s">
+        <v>583</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>624</v>
-      </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="119" t="s">
-        <v>585</v>
+        <v>623</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="79" t="s">
+        <v>584</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="D21" s="121" t="s">
-        <v>638</v>
-      </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="127" t="s">
-        <v>630</v>
-      </c>
-      <c r="G21" s="121" t="s">
-        <v>571</v>
-      </c>
-      <c r="H21" s="121"/>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="119" t="s">
-        <v>586</v>
+        <v>624</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>635</v>
+      </c>
+      <c r="E21" s="81"/>
+      <c r="F21" s="87" t="s">
+        <v>629</v>
+      </c>
+      <c r="G21" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="79" t="s">
+        <v>585</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>601</v>
-      </c>
-      <c r="D22" s="121" t="s">
-        <v>636</v>
-      </c>
-      <c r="E22" s="121" t="s">
-        <v>632</v>
-      </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="119" t="s">
-        <v>587</v>
+        <v>600</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>633</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="79" t="s">
+        <v>586</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>602</v>
-      </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121" t="s">
+        <v>601</v>
+      </c>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81" t="s">
         <v>564</v>
       </c>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121" t="s">
-        <v>633</v>
-      </c>
-      <c r="H23" s="121"/>
-    </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="119" t="s">
-        <v>588</v>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="81"/>
+    </row>
+    <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="79" t="s">
+        <v>587</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>603</v>
-      </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="127" t="s">
-        <v>630</v>
-      </c>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="119" t="s">
-        <v>589</v>
+        <v>602</v>
+      </c>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="87" t="s">
+        <v>629</v>
+      </c>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="79" t="s">
+        <v>588</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>604</v>
-      </c>
-      <c r="D25" s="121" t="s">
-        <v>637</v>
-      </c>
-      <c r="E25" s="121" t="s">
-        <v>647</v>
-      </c>
-      <c r="F25" s="128">
+        <v>603</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>634</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>643</v>
+      </c>
+      <c r="F25" s="88">
         <v>7</v>
       </c>
-      <c r="G25" s="121" t="s">
-        <v>572</v>
-      </c>
-      <c r="H25" s="121" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="119" t="s">
-        <v>590</v>
+      <c r="G25" s="81" t="s">
+        <v>571</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="79" t="s">
+        <v>589</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>605</v>
-      </c>
-      <c r="D26" s="121" t="s">
-        <v>640</v>
-      </c>
-      <c r="E26" s="121" t="s">
+        <v>604</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="E26" s="81" t="s">
         <v>563</v>
       </c>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="119" t="s">
-        <v>591</v>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="79" t="s">
+        <v>590</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-    </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="119" t="s">
-        <v>592</v>
+        <v>605</v>
+      </c>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+    </row>
+    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="79" t="s">
+        <v>591</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>607</v>
-      </c>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121">
+        <v>606</v>
+      </c>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81">
         <v>10</v>
       </c>
-      <c r="G28" s="121" t="s">
-        <v>642</v>
-      </c>
-      <c r="H28" s="121" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="119" t="s">
-        <v>593</v>
+      <c r="G28" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="79" t="s">
+        <v>592</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="D29" s="120" t="s">
-        <v>644</v>
-      </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121" t="s">
-        <v>631</v>
-      </c>
-      <c r="H29" s="121"/>
-    </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="119" t="s">
-        <v>594</v>
+        <v>607</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>641</v>
+      </c>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="81"/>
+    </row>
+    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="79" t="s">
+        <v>593</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>609</v>
-      </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121" t="s">
-        <v>646</v>
-      </c>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121" t="s">
-        <v>645</v>
-      </c>
-      <c r="H30" s="121"/>
-    </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="119" t="s">
-        <v>595</v>
+        <v>608</v>
+      </c>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81" t="s">
+        <v>642</v>
+      </c>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="81"/>
+    </row>
+    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="79" t="s">
+        <v>594</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>610</v>
-      </c>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121">
+        <v>609</v>
+      </c>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81">
         <v>1</v>
       </c>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="119" t="s">
-        <v>596</v>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="79" t="s">
+        <v>595</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>611</v>
-      </c>
-      <c r="D32" s="121" t="s">
-        <v>649</v>
-      </c>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121">
+        <v>610</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>645</v>
+      </c>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81">
         <v>999</v>
       </c>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121" t="s">
-        <v>650</v>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -11050,9 +11069,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11060,7 +11079,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>

--- a/tools/example_framework_UPDATE.xlsx
+++ b/tools/example_framework_UPDATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E84FA-4087-B447-A57E-5C81AC9A5129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB89E0-6E78-4209-A3A3-36452D987657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20400" tabRatio="907" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -462,7 +462,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Set one among "UNDEFINED"/"undefined" if the question depends on nothing. See cell note at </t>
+          <t xml:space="preserve">Set "undefined" if the question depends on nothing. See cell note at </t>
         </r>
         <r>
           <rPr>
@@ -757,7 +757,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Choice 4</t>
+          <t>Choice 3 or 4</t>
         </r>
         <r>
           <rPr>
@@ -766,7 +766,45 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> for the question (COR-A9)</t>
+          <t xml:space="preserve"> for the question (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SUZ-DQ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> or </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>COR-A9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -908,7 +946,7 @@
           </rPr>
           <t xml:space="preserve">
 Usable if question_type is "unique_choice" or "multiple_choice".
-A choice provokes the selection of the indicated Implementation Groups (IG). For the same choice, separate IGs with commas. To define IGs for each choice, separate IG groups with line breaks.</t>
+A choice provokes the selection of the indicated Implementation Groups (IG). For the same choice, separate IGs with commas. To define IGs for each choice, separate IG groups with line breaks. Set "/undefined" or an empty cell for no IG.</t>
         </r>
       </text>
     </comment>
@@ -976,10 +1014,31 @@
           </rPr>
           <t xml:space="preserve">
 Usable if question_type is "unique_choice" or "multiple_choice".
-Boolean. True = `TRUE`/`T`/`YES`/`Y`/`O` ;
-False = `FALSE`/`F`/`NO`/`N`/`X` ;
-Undefined = Empty cell
-If `TRUE`, this choice contributes to compliance. If `FALSE`, this choice contributes to non-compliance. Each boolean is separated by line breaks.  If `Undefined`, the choice contributes to nothing. </t>
+Boolean/None. True = "true" ; False = "false" ; None = "undefined" or empty cell. If true, this choice contributes to compliance. If false, this choice contributes to non-compliance. If empty, the choice contributes to nothing. Each boolean is separated by line breaks.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{61FB1504-7F3D-4363-831E-3E126EF71EE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About color :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hexadecimal value. Format = "#xxxxxx" ; None = "undefined" or empty cell. Each choice color is separated by line breaks.</t>
         </r>
       </text>
     </comment>
@@ -1149,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="682">
   <si>
     <t>type</t>
   </si>
@@ -3343,11 +3402,6 @@
     <t>Description for every choice 2</t>
   </si>
   <si>
-    <t>FALSE
-TRUE
-FALSE</t>
-  </si>
-  <si>
     <t>Description 7
 Description 8
 Super Long Description 2</t>
@@ -3370,16 +3424,6 @@
   </si>
   <si>
     <t>grp003, testgrp2</t>
-  </si>
-  <si>
-    <t>testgrp3
-testgrp2, grp001
-testgrp1</t>
-  </si>
-  <si>
-    <t>#fcaeb6
-#aefcf5
-#eafcae</t>
   </si>
   <si>
     <t>Desc999</t>
@@ -3513,16 +3557,48 @@
     <t>depends_on</t>
   </si>
   <si>
+    <t>FALSE
+TRUE
+UNDEFINED</t>
+  </si>
+  <si>
+    <t>Description
+| on multiple lines
+| for Choice 1
+Description of Choice 2
+Description of Choice 3</t>
+  </si>
+  <si>
+    <t>#fcaeb6
+#aefcf5
+UNDEFINED</t>
+  </si>
+  <si>
+    <t>UNDEFINED
+UNDEFINED
+#00aa00</t>
+  </si>
+  <si>
+    <t>-22
+0
+13</t>
+  </si>
+  <si>
+    <t>testgrp3
+/UNDEFINED
+testgrp2, grp001</t>
+  </si>
+  <si>
     <t>UNDEFINED
 7:1:1
-35:2:4</t>
+35:2:3,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3706,6 +3782,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -4229,6 +4312,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4238,6 +4339,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4262,88 +4426,7 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4352,9 +4435,8 @@
   </cellStyles>
   <dxfs count="80">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4367,6 +4449,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -5181,25 +5265,6 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -5414,6 +5479,24 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5674,30 +5757,30 @@
     <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="69"/>
     <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="68"/>
     <tableColumn id="19" xr3:uid="{DFBF3465-BE6B-4017-8F87-57A82780A75B}" name="importance" dataDxfId="67"/>
-    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="65"/>
-    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="64"/>
-    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="63"/>
-    <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="62"/>
-    <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="57"/>
+    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="64"/>
+    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="63"/>
+    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="62"/>
+    <tableColumn id="15" xr3:uid="{98B369E5-A92E-4F40-ABC5-965BF81E342E}" name="threats" dataDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{12E0FCEA-DE2D-4475-972C-17BB204562B1}" name="reference_controls" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="56"/>
   </tableColumns>
-  <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:F8" totalsRowShown="0" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:F8" totalsRowShown="0" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A1:F8" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="48"/>
     <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="47"/>
   </tableColumns>
@@ -6075,407 +6158,387 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="13" max="13" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="64" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
-    </row>
-    <row r="2" spans="1:13" ht="42.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
+    </row>
+    <row r="2" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="116" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-    </row>
-    <row r="3" spans="1:13" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="112"/>
-    </row>
-    <row r="4" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="100"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="89" t="s">
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-    </row>
-    <row r="5" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="89" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="89" t="s">
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-    </row>
-    <row r="7" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="89" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="95" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
-    </row>
-    <row r="8" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="89" t="s">
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
-    </row>
-    <row r="9" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="124" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="89" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="95" t="s">
         <v>271</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
-    </row>
-    <row r="10" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="89" t="s">
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="91"/>
-    </row>
-    <row r="11" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="97"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="120" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="89" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
-    </row>
-    <row r="12" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="97"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="89" t="s">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90" t="s">
         <v>547</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-    </row>
-    <row r="14" spans="1:13" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+    </row>
+    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
-    </row>
-    <row r="15" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="89" t="s">
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
-    </row>
-    <row r="16" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="97"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="89" t="s">
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="91"/>
-    </row>
-    <row r="17" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="89" t="s">
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="91"/>
-    </row>
-    <row r="18" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119" t="s">
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="97"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="89" t="s">
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="91"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="97"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="89" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="91"/>
-    </row>
-    <row r="20" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="113" t="s">
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="97"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-    </row>
-    <row r="21" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -6492,6 +6555,26 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6509,17 +6592,17 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="49.83203125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>225</v>
       </c>
@@ -6537,7 +6620,7 @@
       </c>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>0</v>
       </c>
@@ -6556,7 +6639,7 @@
       <c r="F2" s="45"/>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -6575,7 +6658,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="46"/>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -6594,7 +6677,7 @@
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -6613,7 +6696,7 @@
       <c r="F5" s="45"/>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -6632,7 +6715,7 @@
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -6651,7 +6734,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="44"/>
     </row>
   </sheetData>
@@ -6673,13 +6756,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6687,7 +6770,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6712,19 +6795,19 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="44" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="44" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.1640625" style="44" customWidth="1"/>
+    <col min="9" max="10" width="17.109375" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="57" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
@@ -6747,7 +6830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>285</v>
       </c>
@@ -6772,7 +6855,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>286</v>
       </c>
@@ -6795,7 +6878,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>287</v>
       </c>
@@ -6818,7 +6901,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>288</v>
       </c>
@@ -6839,7 +6922,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>289</v>
       </c>
@@ -6860,7 +6943,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>301</v>
       </c>
@@ -6881,7 +6964,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>302</v>
       </c>
@@ -6902,7 +6985,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>290</v>
       </c>
@@ -6923,7 +7006,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>291</v>
       </c>
@@ -6946,7 +7029,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>292</v>
       </c>
@@ -6969,7 +7052,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>293</v>
       </c>
@@ -6992,7 +7075,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>294</v>
       </c>
@@ -7015,7 +7098,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>295</v>
       </c>
@@ -7038,7 +7121,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>296</v>
       </c>
@@ -7061,7 +7144,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>297</v>
       </c>
@@ -7084,7 +7167,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>298</v>
       </c>
@@ -7107,7 +7190,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>299</v>
       </c>
@@ -7130,7 +7213,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>300</v>
       </c>
@@ -7151,7 +7234,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>303</v>
       </c>
@@ -7176,7 +7259,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>304</v>
       </c>
@@ -7199,7 +7282,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>305</v>
       </c>
@@ -7222,7 +7305,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>306</v>
       </c>
@@ -7243,7 +7326,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>307</v>
       </c>
@@ -7264,7 +7347,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>308</v>
       </c>
@@ -7285,7 +7368,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
         <v>309</v>
       </c>
@@ -7327,13 +7410,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7341,7 +7424,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7367,20 +7450,20 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="33.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="57" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
@@ -7409,7 +7492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>400</v>
       </c>
@@ -7434,7 +7517,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>401</v>
       </c>
@@ -7455,7 +7538,7 @@
       </c>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>402</v>
       </c>
@@ -7478,7 +7561,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>403</v>
       </c>
@@ -7501,7 +7584,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>404</v>
       </c>
@@ -7524,7 +7607,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>405</v>
       </c>
@@ -7547,7 +7630,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>406</v>
       </c>
@@ -7570,7 +7653,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>523</v>
       </c>
@@ -7589,7 +7672,7 @@
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>422</v>
       </c>
@@ -7612,7 +7695,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>424</v>
       </c>
@@ -7637,7 +7720,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>435</v>
       </c>
@@ -7662,7 +7745,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>436</v>
       </c>
@@ -7687,7 +7770,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>437</v>
       </c>
@@ -7712,7 +7795,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>438</v>
       </c>
@@ -7737,7 +7820,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>439</v>
       </c>
@@ -7764,7 +7847,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>440</v>
       </c>
@@ -7791,7 +7874,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>441</v>
       </c>
@@ -7816,7 +7899,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>442</v>
       </c>
@@ -7839,7 +7922,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>443</v>
       </c>
@@ -7860,7 +7943,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>450</v>
       </c>
@@ -7889,7 +7972,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>451</v>
       </c>
@@ -7910,7 +7993,7 @@
       </c>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>452</v>
       </c>
@@ -7935,7 +8018,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>453</v>
       </c>
@@ -7956,7 +8039,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>454</v>
       </c>
@@ -7977,7 +8060,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>455</v>
       </c>
@@ -7998,7 +8081,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>456</v>
       </c>
@@ -8040,12 +8123,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8069,13 +8152,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>376</v>
       </c>
@@ -8083,7 +8166,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -8091,7 +8174,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>52</v>
       </c>
@@ -8099,7 +8182,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -8130,13 +8213,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8144,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8152,7 +8235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -8160,7 +8243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -8168,7 +8251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -8176,7 +8259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -8184,7 +8267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -8192,7 +8275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -8200,7 +8283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -8208,7 +8291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -8216,7 +8299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
         <v>539</v>
       </c>
@@ -8224,7 +8307,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -8232,7 +8315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -8240,7 +8323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -8265,13 +8348,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8279,7 +8362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -8287,7 +8370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8295,7 +8378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -8303,7 +8386,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -8311,7 +8394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -8319,7 +8402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -8327,7 +8410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>187</v>
       </c>
@@ -8335,7 +8418,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>249</v>
       </c>
@@ -8343,7 +8426,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>250</v>
       </c>
@@ -8351,7 +8434,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>251</v>
       </c>
@@ -8359,7 +8442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
@@ -8367,7 +8450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
@@ -8391,35 +8474,35 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="29" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="29" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="29" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="29" customWidth="1"/>
-    <col min="17" max="17" width="31.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="44.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="31.77734375" style="29" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.109375" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -8457,7 +8540,7 @@
         <v>202</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="N1" s="67" t="s">
         <v>282</v>
@@ -8478,7 +8561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="38">
         <v>1</v>
@@ -8507,7 +8590,7 @@
       <c r="R2" s="38"/>
       <c r="S2" s="40"/>
     </row>
-    <row r="3" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38" t="s">
         <v>52</v>
@@ -8546,7 +8629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="38" t="s">
         <v>55</v>
@@ -8579,7 +8662,7 @@
       <c r="R4" s="38"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>51</v>
       </c>
@@ -8618,7 +8701,7 @@
       <c r="R5" s="38"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>51</v>
       </c>
@@ -8661,7 +8744,7 @@
       </c>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19" s="30" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>51</v>
       </c>
@@ -8702,7 +8785,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>51</v>
       </c>
@@ -8743,7 +8826,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>51</v>
       </c>
@@ -8774,7 +8857,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="40"/>
     </row>
-    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>51</v>
       </c>
@@ -8803,7 +8886,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="40"/>
     </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>51</v>
       </c>
@@ -8838,7 +8921,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="40"/>
     </row>
-    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>51</v>
       </c>
@@ -8871,7 +8954,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="40"/>
     </row>
-    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>51</v>
       </c>
@@ -8906,7 +8989,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="40"/>
     </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
         <v>57</v>
@@ -8935,7 +9018,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="40"/>
     </row>
-    <row r="15" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>51</v>
       </c>
@@ -8976,7 +9059,7 @@
       </c>
       <c r="S15" s="40"/>
     </row>
-    <row r="16" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>51</v>
       </c>
@@ -9017,7 +9100,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>51</v>
       </c>
@@ -9060,7 +9143,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>51</v>
       </c>
@@ -9095,7 +9178,7 @@
       <c r="R18" s="38"/>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>51</v>
       </c>
@@ -9132,7 +9215,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="40"/>
     </row>
-    <row r="20" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>51</v>
       </c>
@@ -9167,7 +9250,7 @@
       <c r="R20" s="38"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>51</v>
       </c>
@@ -9198,7 +9281,7 @@
       <c r="R21" s="38"/>
       <c r="S21" s="40"/>
     </row>
-    <row r="22" spans="1:19" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
         <v>68</v>
@@ -9233,7 +9316,7 @@
       <c r="R22" s="38"/>
       <c r="S22" s="40"/>
     </row>
-    <row r="23" spans="1:19" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>51</v>
       </c>
@@ -9266,7 +9349,7 @@
       <c r="R23" s="38"/>
       <c r="S23" s="40"/>
     </row>
-    <row r="24" spans="1:19" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>51</v>
       </c>
@@ -9297,7 +9380,7 @@
       <c r="R24" s="38"/>
       <c r="S24" s="40"/>
     </row>
-    <row r="25" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>51</v>
       </c>
@@ -9328,7 +9411,7 @@
       <c r="R25" s="38"/>
       <c r="S25" s="40"/>
     </row>
-    <row r="26" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>51</v>
       </c>
@@ -9359,7 +9442,7 @@
       <c r="R26" s="38"/>
       <c r="S26" s="40"/>
     </row>
-    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>51</v>
       </c>
@@ -9390,7 +9473,7 @@
       <c r="R27" s="38"/>
       <c r="S27" s="40"/>
     </row>
-    <row r="28" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
         <v>55</v>
@@ -9421,7 +9504,7 @@
       <c r="R28" s="38"/>
       <c r="S28" s="40"/>
     </row>
-    <row r="29" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="38" t="s">
         <v>55</v>
@@ -9454,7 +9537,7 @@
       <c r="R29" s="38"/>
       <c r="S29" s="40"/>
     </row>
-    <row r="30" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
         <v>55</v>
@@ -9489,7 +9572,7 @@
       <c r="R30" s="38"/>
       <c r="S30" s="40"/>
     </row>
-    <row r="31" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41"/>
       <c r="B31" s="42" t="s">
         <v>55</v>
@@ -9524,7 +9607,7 @@
       <c r="R31" s="42"/>
       <c r="S31" s="70"/>
     </row>
-    <row r="32" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="41"/>
       <c r="B32" s="42" t="s">
         <v>5</v>
@@ -9553,7 +9636,7 @@
       <c r="R32" s="42"/>
       <c r="S32" s="70"/>
     </row>
-    <row r="33" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>51</v>
       </c>
@@ -9594,7 +9677,7 @@
       <c r="R33" s="42"/>
       <c r="S33" s="70"/>
     </row>
-    <row r="34" spans="1:19" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>51</v>
       </c>
@@ -9633,7 +9716,7 @@
       <c r="R34" s="38"/>
       <c r="S34" s="40"/>
     </row>
-    <row r="35" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>51</v>
       </c>
@@ -9672,7 +9755,7 @@
       <c r="R35" s="38"/>
       <c r="S35" s="40"/>
     </row>
-    <row r="36" spans="1:19" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="38" t="s">
         <v>5</v>
@@ -9701,7 +9784,7 @@
       <c r="R36" s="38"/>
       <c r="S36" s="40"/>
     </row>
-    <row r="37" spans="1:19" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>51</v>
       </c>
@@ -9736,7 +9819,7 @@
       <c r="R37" s="38"/>
       <c r="S37" s="40"/>
     </row>
-    <row r="38" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>51</v>
       </c>
@@ -9771,7 +9854,7 @@
       <c r="R38" s="38"/>
       <c r="S38" s="40"/>
     </row>
-    <row r="39" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>51</v>
       </c>
@@ -9804,16 +9887,16 @@
       <c r="R39" s="42"/>
       <c r="S39" s="70"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
@@ -9831,7 +9914,7 @@
       <c r="R40" s="38"/>
       <c r="S40" s="40"/>
     </row>
-    <row r="41" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>51</v>
       </c>
@@ -9840,7 +9923,7 @@
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
@@ -9849,13 +9932,13 @@
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
       <c r="K41" s="39" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L41" s="38" t="s">
         <v>559</v>
       </c>
       <c r="M41" s="39" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
@@ -9864,7 +9947,7 @@
       <c r="R41" s="38"/>
       <c r="S41" s="40"/>
     </row>
-    <row r="42" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>51</v>
       </c>
@@ -9873,7 +9956,7 @@
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="38" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -9882,10 +9965,10 @@
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
       <c r="K42" s="39" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="L42" s="39" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
@@ -9895,7 +9978,7 @@
       <c r="R42" s="38"/>
       <c r="S42" s="40"/>
     </row>
-    <row r="43" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>51</v>
       </c>
@@ -9904,7 +9987,7 @@
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="38" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -9913,10 +9996,10 @@
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
       <c r="K43" s="39" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L43" s="39" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
@@ -9926,7 +10009,7 @@
       <c r="R43" s="38"/>
       <c r="S43" s="40"/>
     </row>
-    <row r="44" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>51</v>
       </c>
@@ -9935,7 +10018,7 @@
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="38" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
@@ -9944,10 +10027,10 @@
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
       <c r="K44" s="39" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L44" s="39" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
@@ -9957,7 +10040,7 @@
       <c r="R44" s="38"/>
       <c r="S44" s="40"/>
     </row>
-    <row r="45" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>51</v>
       </c>
@@ -9966,7 +10049,7 @@
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="38" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -9975,10 +10058,10 @@
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
       <c r="K45" s="39" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="L45" s="39" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
@@ -9988,7 +10071,7 @@
       <c r="R45" s="38"/>
       <c r="S45" s="40"/>
     </row>
-    <row r="46" spans="1:19" ht="80" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>51</v>
       </c>
@@ -9997,7 +10080,7 @@
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="38" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -10006,10 +10089,10 @@
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
       <c r="K46" s="39" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M46" s="39"/>
       <c r="N46" s="39"/>
@@ -10019,7 +10102,7 @@
       <c r="R46" s="38"/>
       <c r="S46" s="40"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>51</v>
       </c>
@@ -10028,7 +10111,7 @@
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -10037,7 +10120,7 @@
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L47" s="38" t="s">
         <v>588</v>
@@ -10050,7 +10133,7 @@
       <c r="R47" s="38"/>
       <c r="S47" s="40"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>51</v>
       </c>
@@ -10059,7 +10142,7 @@
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="38" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
@@ -10068,7 +10151,7 @@
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L48" s="38" t="s">
         <v>589</v>
@@ -10081,7 +10164,7 @@
       <c r="R48" s="38"/>
       <c r="S48" s="40"/>
     </row>
-    <row r="49" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>51</v>
       </c>
@@ -10090,7 +10173,7 @@
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
@@ -10099,7 +10182,7 @@
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
       <c r="K49" s="39" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="L49" s="38" t="s">
         <v>590</v>
@@ -10112,7 +10195,7 @@
       <c r="R49" s="38"/>
       <c r="S49" s="40"/>
     </row>
-    <row r="50" spans="1:19" ht="64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
         <v>51</v>
       </c>
@@ -10121,7 +10204,7 @@
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="38" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
@@ -10130,10 +10213,10 @@
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
       <c r="K50" s="39" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="L50" s="39" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
@@ -10143,7 +10226,7 @@
       <c r="R50" s="38"/>
       <c r="S50" s="40"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
         <v>51</v>
       </c>
@@ -10152,7 +10235,7 @@
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="38" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
@@ -10161,7 +10244,7 @@
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="L51" s="38" t="s">
         <v>595</v>
@@ -10198,12 +10281,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10211,7 +10294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -10231,22 +10314,22 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="30" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="30" customWidth="1"/>
     <col min="4" max="4" width="20" style="30" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
@@ -10266,7 +10349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
@@ -10284,7 +10367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -10302,7 +10385,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -10310,13 +10393,15 @@
         <v>96</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>124</v>
       </c>
@@ -10334,7 +10419,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>562</v>
       </c>
@@ -10348,7 +10433,7 @@
       </c>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>563</v>
       </c>
@@ -10362,7 +10447,7 @@
       </c>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>564</v>
       </c>
@@ -10397,9 +10482,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10407,7 +10492,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -10427,24 +10512,24 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>189</v>
       </c>
@@ -10470,7 +10555,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>192</v>
       </c>
@@ -10486,7 +10571,7 @@
       <c r="G2" s="80"/>
       <c r="H2" s="80"/>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>199</v>
       </c>
@@ -10502,7 +10587,7 @@
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
     </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>213</v>
       </c>
@@ -10518,7 +10603,7 @@
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
     </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>528</v>
       </c>
@@ -10534,7 +10619,7 @@
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="79" t="s">
         <v>195</v>
       </c>
@@ -10548,7 +10633,7 @@
       <c r="G6" s="82"/>
       <c r="H6" s="82"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="83" t="s">
         <v>197</v>
       </c>
@@ -10562,7 +10647,7 @@
       <c r="G7" s="77"/>
       <c r="H7" s="77"/>
     </row>
-    <row r="8" spans="1:8" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="79" t="s">
         <v>559</v>
       </c>
@@ -10580,7 +10665,7 @@
       <c r="G8" s="81"/>
       <c r="H8" s="81"/>
     </row>
-    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
         <v>560</v>
       </c>
@@ -10598,7 +10683,7 @@
       <c r="G9" s="81"/>
       <c r="H9" s="81"/>
     </row>
-    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
         <v>561</v>
       </c>
@@ -10616,7 +10701,7 @@
       <c r="G10" s="85"/>
       <c r="H10" s="85"/>
     </row>
-    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="79" t="s">
         <v>573</v>
       </c>
@@ -10634,7 +10719,7 @@
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>574</v>
       </c>
@@ -10652,7 +10737,7 @@
       <c r="G12" s="81"/>
       <c r="H12" s="81"/>
     </row>
-    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="79" t="s">
         <v>575</v>
       </c>
@@ -10670,7 +10755,7 @@
       <c r="G13" s="81"/>
       <c r="H13" s="81"/>
     </row>
-    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="79" t="s">
         <v>576</v>
       </c>
@@ -10688,7 +10773,7 @@
       <c r="G14" s="81"/>
       <c r="H14" s="81"/>
     </row>
-    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
         <v>578</v>
       </c>
@@ -10706,7 +10791,7 @@
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
     </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="79" t="s">
         <v>579</v>
       </c>
@@ -10724,7 +10809,7 @@
       </c>
       <c r="H16" s="81"/>
     </row>
-    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>580</v>
       </c>
@@ -10742,7 +10827,7 @@
       </c>
       <c r="H17" s="81"/>
     </row>
-    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="79" t="s">
         <v>581</v>
       </c>
@@ -10756,11 +10841,11 @@
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="H18" s="81"/>
     </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="79" t="s">
         <v>582</v>
       </c>
@@ -10778,7 +10863,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="79" t="s">
         <v>583</v>
       </c>
@@ -10796,7 +10881,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
         <v>584</v>
       </c>
@@ -10818,7 +10903,7 @@
       </c>
       <c r="H21" s="81"/>
     </row>
-    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="79" t="s">
         <v>585</v>
       </c>
@@ -10840,7 +10925,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
         <v>586</v>
       </c>
@@ -10860,7 +10945,7 @@
       </c>
       <c r="H23" s="81"/>
     </row>
-    <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="79" t="s">
         <v>587</v>
       </c>
@@ -10873,14 +10958,14 @@
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="87" t="s">
-        <v>629</v>
+        <v>679</v>
       </c>
       <c r="G24" s="81"/>
       <c r="H24" s="81" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="79" t="s">
         <v>588</v>
       </c>
@@ -10894,7 +10979,7 @@
         <v>634</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>643</v>
+        <v>680</v>
       </c>
       <c r="F25" s="88">
         <v>7</v>
@@ -10906,7 +10991,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="79" t="s">
         <v>589</v>
       </c>
@@ -10917,7 +11002,7 @@
         <v>604</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E26" s="81" t="s">
         <v>563</v>
@@ -10925,10 +11010,10 @@
       <c r="F26" s="81"/>
       <c r="G26" s="81"/>
       <c r="H26" s="81" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
         <v>590</v>
       </c>
@@ -10944,7 +11029,7 @@
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
     </row>
-    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="79" t="s">
         <v>591</v>
       </c>
@@ -10954,19 +11039,21 @@
       <c r="C28" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="D28" s="81"/>
+      <c r="D28" s="80" t="s">
+        <v>676</v>
+      </c>
       <c r="E28" s="81"/>
       <c r="F28" s="81">
         <v>10</v>
       </c>
       <c r="G28" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="H28" s="81" t="s">
         <v>639</v>
       </c>
-      <c r="H28" s="81" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
         <v>592</v>
       </c>
@@ -10977,7 +11064,7 @@
         <v>607</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E29" s="81"/>
       <c r="F29" s="81"/>
@@ -10986,7 +11073,7 @@
       </c>
       <c r="H29" s="81"/>
     </row>
-    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
         <v>593</v>
       </c>
@@ -10998,15 +11085,17 @@
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="81" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F30" s="81"/>
       <c r="G30" s="81" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="81"/>
-    </row>
-    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H30" s="81" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
         <v>594</v>
       </c>
@@ -11023,10 +11112,10 @@
       </c>
       <c r="G31" s="81"/>
       <c r="H31" s="81" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="79" t="s">
         <v>595</v>
       </c>
@@ -11037,7 +11126,7 @@
         <v>610</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="81">
@@ -11045,7 +11134,7 @@
       </c>
       <c r="G32" s="81"/>
       <c r="H32" s="81" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -11069,9 +11158,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11079,7 +11168,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>

--- a/tools/example_framework_UPDATE.xlsx
+++ b/tools/example_framework_UPDATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB89E0-6E78-4209-A3A3-36452D987657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E48334-233E-4299-BF32-3C44EF33F67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -405,16 +405,26 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
+Format: "line_where_the_requirement_containing_the_question_is</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Format: "line_where_the_requirement_containing_the_question_is</t>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>question_line</t>
         </r>
         <r>
           <rPr>
@@ -433,7 +443,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>question_line</t>
+          <t xml:space="preserve">choice_lines"
+Set "undefined" if the question depends on nothing. See cell notes at </t>
         </r>
         <r>
           <rPr>
@@ -443,36 +454,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">choice_line"
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set "undefined" if the question depends on nothing. See cell note at </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>line 41</t>
+          <t>lines 41 and 43</t>
         </r>
         <r>
           <rPr>
@@ -572,7 +554,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (Where is it?) depends on nothing.
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Where is it?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) depends on nothing.
 </t>
         </r>
         <r>
@@ -612,7 +613,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (Who is it?) depends on the questions of the requirement at </t>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Who is it?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) depends on the questions of the requirement at </t>
         </r>
         <r>
           <rPr>
@@ -650,7 +670,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (Is the Exception respected?) -&gt; </t>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is the Exception respected?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) -&gt; </t>
         </r>
         <r>
           <rPr>
@@ -669,7 +708,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> for the question (Yes).
+          <t xml:space="preserve"> of the question (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">).
 </t>
         </r>
         <r>
@@ -709,7 +767,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (What is it?) depends on the questions of the requirement at </t>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>What is it?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) depends on the questions of the requirement at </t>
         </r>
         <r>
           <rPr>
@@ -747,7 +824,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (Name of 2nd department?) -&gt; </t>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of 2nd department?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) -&gt; </t>
         </r>
         <r>
           <rPr>
@@ -766,7 +862,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> for the question (</t>
+          <t xml:space="preserve"> of the question (</t>
         </r>
         <r>
           <rPr>
@@ -805,6 +901,249 @@
             <family val="2"/>
           </rPr>
           <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M43" authorId="0" shapeId="0" xr:uid="{9A8B5413-B6B8-4CA6-B461-03079E5EAE3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">.: Line 1,2 &amp; 3 :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Means that the </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1st, 2nd and 3rd Questions</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 4?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ; </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 5?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ; </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 6?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) depends on the questions of the requirement at </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Line 5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is it true?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choice 1, 2 or 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> of the question (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ; </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ; </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>N/A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1208,7 +1547,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="683">
   <si>
     <t>type</t>
   </si>
@@ -1873,9 +2212,6 @@
   </si>
   <si>
     <t>answer</t>
-  </si>
-  <si>
-    <t>Is it true ?</t>
   </si>
   <si>
     <t>Is a) respected?
@@ -3593,12 +3929,18 @@
 7:1:1
 35:2:3,4</t>
   </si>
+  <si>
+    <t>5:1:1,2,3</t>
+  </si>
+  <si>
+    <t>Is it true?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3791,6 +4133,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -4312,24 +4667,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4338,69 +4675,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4426,7 +4700,88 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4434,25 +4789,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="80">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -5195,6 +5531,25 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -5780,33 +6135,33 @@
     <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="51"/>
     <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="50"/>
     <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:H32" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <autoFilter ref="A1:H32" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}" name="Tableau5" displayName="Tableau5" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A1:E1048576" xr:uid="{8AB0205B-E51F-4004-809C-4673837E5B05}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{881914C9-040C-42B4-91FE-05BC90988F70}" name="score"/>
@@ -5820,45 +6175,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21DED0C8-7237-47BF-8873-738C4400D3DB}" name="Tableau14" displayName="Tableau14" ref="A1:G26" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21DED0C8-7237-47BF-8873-738C4400D3DB}" name="Tableau14" displayName="Tableau14" ref="A1:G26" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A1:G26" xr:uid="{32B00483-E3F9-4C14-B125-41886D9D0F23}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F9E1637-D442-4022-8B78-23492F1B2FD4}" name="ref_id" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{1990900A-E9A9-4853-8F63-DC439067075E}" name="name" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E03E16C2-E13E-458D-A24A-3C34A91E3DF2}" name="description" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{5ECFEFFA-B045-45BD-A6D7-4E11C3283380}" name="annotation" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{4F645D7B-245A-416B-9E6F-06323318E6E2}" name="name[fr]" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{E7094BA8-F77D-4F12-A3F8-7928936A0D2E}" name="description[fr]" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{B9C14FC4-B603-427E-A7F4-CACF10F7A085}" name="annotation[fr]" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{2F9E1637-D442-4022-8B78-23492F1B2FD4}" name="ref_id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1990900A-E9A9-4853-8F63-DC439067075E}" name="name" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E03E16C2-E13E-458D-A24A-3C34A91E3DF2}" name="description" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{5ECFEFFA-B045-45BD-A6D7-4E11C3283380}" name="annotation" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{4F645D7B-245A-416B-9E6F-06323318E6E2}" name="name[fr]" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{E7094BA8-F77D-4F12-A3F8-7928936A0D2E}" name="description[fr]" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{B9C14FC4-B603-427E-A7F4-CACF10F7A085}" name="annotation[fr]" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DCAA1FD-DB86-4E15-8E31-AC99AB9F45D4}" name="Tableau3" displayName="Tableau3" ref="A1:I27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6DCAA1FD-DB86-4E15-8E31-AC99AB9F45D4}" name="Tableau3" displayName="Tableau3" ref="A1:I27" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:I27" xr:uid="{4748F8BA-F2F9-4976-90F0-1D6F9F26191B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15A5B4EF-24CA-4813-9A39-8D55A540B838}" name="ref_id" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{541E38F3-C3CB-49DA-B177-2A1749008A5B}" name="name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F2BC8545-6F89-4E86-8E77-5E4AA7C0033E}" name="category" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2D6C7622-7C26-46E8-BA06-DC874E602ECA}" name="csf_function" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{8B114798-8119-45A5-AC98-80691A7F5743}" name="description" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3B24CD29-2024-4E6C-8EA8-A2A27F71DB45}" name="annotation" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{6D87C08C-7195-4695-A258-EC8C5FBA7769}" name="name[fr]" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{05DA7DF2-5885-4810-9061-18E2243F317E}" name="description[fr]" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{4E63784C-6489-4DCD-AFDF-2126BE436F13}" name="annotation[fr]" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{15A5B4EF-24CA-4813-9A39-8D55A540B838}" name="ref_id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{541E38F3-C3CB-49DA-B177-2A1749008A5B}" name="name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F2BC8545-6F89-4E86-8E77-5E4AA7C0033E}" name="category" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2D6C7622-7C26-46E8-BA06-DC874E602ECA}" name="csf_function" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{8B114798-8119-45A5-AC98-80691A7F5743}" name="description" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{3B24CD29-2024-4E6C-8EA8-A2A27F71DB45}" name="annotation" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6D87C08C-7195-4695-A258-EC8C5FBA7769}" name="name[fr]" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{05DA7DF2-5885-4810-9061-18E2243F317E}" name="description[fr]" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4E63784C-6489-4DCD-AFDF-2126BE436F13}" name="annotation[fr]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}" name="Tableau7" displayName="Tableau7" ref="A1:B4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}" name="Tableau7" displayName="Tableau7" ref="A1:B4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:B4" xr:uid="{D16BDFCB-B8D2-4F9D-906C-2230193C4279}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{438C028E-BBB1-42A6-99B2-250AC16AFAC2}" name="prefix_id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A29B1659-A5F7-4CB7-96A6-4F3536BCB6B5}" name="prefix_value" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{438C028E-BBB1-42A6-99B2-250AC16AFAC2}" name="prefix_id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A29B1659-A5F7-4CB7-96A6-4F3536BCB6B5}" name="prefix_value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6165,380 +6520,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="107" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="103" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="104" t="s">
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="91"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="94" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114" t="s">
+        <v>546</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+    </row>
+    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="112"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="125" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="95" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="97"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="127" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="126" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="125" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="95" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="124" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="95" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="119" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="95" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="97"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="120" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="97"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="121" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="97"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90" t="s">
-        <v>547</v>
-      </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-    </row>
-    <row r="14" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="110" t="s">
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="89" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="97"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="95" t="s">
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="91"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="95" t="s">
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="91"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="97"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="95" t="s">
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="91"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="91"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="97"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="97"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G4:M4"/>
@@ -6555,26 +6930,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6604,7 +6959,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>10</v>
@@ -6625,16 +6980,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="45"/>
       <c r="G2" s="46"/>
@@ -6644,16 +6999,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>234</v>
-      </c>
       <c r="E3" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="46"/>
@@ -6663,16 +7018,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -6682,16 +7037,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="46"/>
@@ -6701,16 +7056,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
@@ -6720,16 +7075,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
@@ -6767,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6775,7 +7130,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6832,559 +7187,559 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E2" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>342</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>343</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>344</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>345</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
       <c r="E23" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
       <c r="E24" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G24" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -7421,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7429,7 +7784,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -7471,10 +7826,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E1" s="60" t="s">
         <v>12</v>
@@ -7494,612 +7849,612 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>524</v>
-      </c>
       <c r="C9" s="31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
       <c r="G9" s="31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>422</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>423</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>424</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>425</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -8133,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -8160,10 +8515,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>376</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8171,7 +8526,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8179,7 +8534,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8187,7 +8542,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -8301,10 +8656,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>539</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8383,7 +8738,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8415,28 +8770,28 @@
         <v>187</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>68</v>
@@ -8474,9 +8829,9 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8525,10 +8880,10 @@
         <v>34</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>35</v>
@@ -8540,13 +8895,13 @@
         <v>202</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>19</v>
@@ -8679,12 +9034,12 @@
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38" t="s">
-        <v>203</v>
+        <v>682</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>192</v>
@@ -8725,7 +9080,7 @@
       </c>
       <c r="J6" s="38"/>
       <c r="K6" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L6" s="34" t="s">
         <v>192</v>
@@ -8766,10 +9121,10 @@
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
@@ -8841,7 +9196,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -9009,7 +9364,7 @@
       <c r="M14" s="38"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P14" s="38" t="s">
         <v>140</v>
@@ -9035,7 +9390,7 @@
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I15" s="37">
         <v>5</v>
@@ -9048,7 +9403,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="68"/>
       <c r="O15" s="74" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P15" s="38" t="s">
         <v>141</v>
@@ -9078,7 +9433,7 @@
         <v>88</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I16" s="37"/>
       <c r="J16" s="17" t="s">
@@ -9089,7 +9444,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="68"/>
       <c r="O16" s="68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P16" s="38" t="s">
         <v>142</v>
@@ -9130,7 +9485,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="68"/>
       <c r="O17" s="68" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P17" s="38" t="s">
         <v>143</v>
@@ -9169,7 +9524,7 @@
       <c r="M18" s="38"/>
       <c r="N18" s="39"/>
       <c r="O18" s="68" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P18" s="38" t="s">
         <v>144</v>
@@ -9203,10 +9558,10 @@
       <c r="L19" s="17"/>
       <c r="M19" s="24"/>
       <c r="N19" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="O19" s="68" t="s">
         <v>535</v>
-      </c>
-      <c r="O19" s="68" t="s">
-        <v>536</v>
       </c>
       <c r="P19" s="38" t="s">
         <v>145</v>
@@ -9241,7 +9596,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="68"/>
       <c r="O20" s="68" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P20" s="38" t="s">
         <v>146</v>
@@ -9272,7 +9627,7 @@
       <c r="M21" s="38"/>
       <c r="N21" s="39"/>
       <c r="O21" s="39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P21" s="38" t="s">
         <v>147</v>
@@ -9305,7 +9660,7 @@
       <c r="M22" s="38"/>
       <c r="N22" s="39"/>
       <c r="O22" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P22" s="38" t="s">
         <v>119</v>
@@ -9337,10 +9692,10 @@
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O23" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P23" s="38" t="s">
         <v>148</v>
@@ -9371,7 +9726,7 @@
       <c r="M24" s="38"/>
       <c r="N24" s="39"/>
       <c r="O24" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P24" s="38" t="s">
         <v>149</v>
@@ -9395,7 +9750,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
@@ -9426,7 +9781,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
@@ -9457,7 +9812,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -9560,7 +9915,7 @@
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
       <c r="N30" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="38" t="s">
@@ -9595,7 +9950,7 @@
       <c r="L31" s="42"/>
       <c r="M31" s="42"/>
       <c r="N31" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O31" s="43"/>
       <c r="P31" s="42" t="s">
@@ -9626,7 +9981,7 @@
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
       <c r="N32" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O32" s="43"/>
       <c r="P32" s="42" t="s">
@@ -9648,31 +10003,31 @@
         <v>56</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
       <c r="H33" s="42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I33" s="42"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M33" s="42"/>
       <c r="N33" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O33" s="43"/>
       <c r="P33" s="38" t="s">
         <v>131</v>
       </c>
       <c r="Q33" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R33" s="42"/>
       <c r="S33" s="70"/>
@@ -9689,7 +10044,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -9699,10 +10054,10 @@
       </c>
       <c r="J34" s="38"/>
       <c r="K34" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L34" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -9711,7 +10066,7 @@
         <v>132</v>
       </c>
       <c r="Q34" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R34" s="38"/>
       <c r="S34" s="40"/>
@@ -9728,7 +10083,7 @@
         <v>59</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -9736,21 +10091,21 @@
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M35" s="42"/>
       <c r="N35" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O35" s="43"/>
       <c r="P35" s="38" t="s">
         <v>133</v>
       </c>
       <c r="Q35" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R35" s="38"/>
       <c r="S35" s="40"/>
@@ -9774,7 +10129,7 @@
       <c r="L36" s="38"/>
       <c r="M36" s="42"/>
       <c r="N36" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O36" s="43"/>
       <c r="P36" s="38" t="s">
@@ -9796,7 +10151,7 @@
         <v>56</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -9807,14 +10162,14 @@
       <c r="L37" s="38"/>
       <c r="M37" s="42"/>
       <c r="N37" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O37" s="43"/>
       <c r="P37" s="38" t="s">
         <v>131</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R37" s="38"/>
       <c r="S37" s="40"/>
@@ -9831,13 +10186,13 @@
         <v>58</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
@@ -9849,7 +10204,7 @@
         <v>132</v>
       </c>
       <c r="Q38" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R38" s="38"/>
       <c r="S38" s="40"/>
@@ -9866,7 +10221,7 @@
         <v>59</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -9882,7 +10237,7 @@
         <v>133</v>
       </c>
       <c r="Q39" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R39" s="42"/>
       <c r="S39" s="70"/>
@@ -9893,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
@@ -9923,7 +10278,7 @@
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
@@ -9932,13 +10287,13 @@
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
       <c r="K41" s="39" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M41" s="39" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
@@ -9956,7 +10311,7 @@
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -9965,10 +10320,10 @@
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
       <c r="K42" s="39" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L42" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
@@ -9987,7 +10342,7 @@
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -9996,12 +10351,14 @@
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
       <c r="K43" s="39" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L43" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="M43" s="39"/>
+        <v>646</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>681</v>
+      </c>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
       <c r="P43" s="38"/>
@@ -10018,7 +10375,7 @@
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
@@ -10027,10 +10384,10 @@
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
       <c r="K44" s="39" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L44" s="39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
@@ -10049,7 +10406,7 @@
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -10058,10 +10415,10 @@
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
       <c r="K45" s="39" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L45" s="39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
@@ -10080,7 +10437,7 @@
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -10089,10 +10446,10 @@
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
       <c r="K46" s="39" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M46" s="39"/>
       <c r="N46" s="39"/>
@@ -10111,7 +10468,7 @@
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -10120,10 +10477,10 @@
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M47" s="38"/>
       <c r="N47" s="39"/>
@@ -10142,7 +10499,7 @@
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
@@ -10151,10 +10508,10 @@
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M48" s="38"/>
       <c r="N48" s="39"/>
@@ -10173,7 +10530,7 @@
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
@@ -10182,10 +10539,10 @@
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
       <c r="K49" s="39" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M49" s="38"/>
       <c r="N49" s="39"/>
@@ -10204,7 +10561,7 @@
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
@@ -10213,10 +10570,10 @@
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
       <c r="K50" s="39" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L50" s="39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
@@ -10235,7 +10592,7 @@
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
@@ -10244,10 +10601,10 @@
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M51" s="38"/>
       <c r="N51" s="39"/>
@@ -10314,7 +10671,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -10340,7 +10697,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>19</v>
@@ -10393,9 +10750,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>101</v>
       </c>
@@ -10421,43 +10776,43 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F8" s="26"/>
     </row>
@@ -10497,7 +10852,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -10514,7 +10869,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10543,16 +10898,16 @@
         <v>12</v>
       </c>
       <c r="E1" s="78" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" s="78" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="78" t="s">
-        <v>556</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>558</v>
-      </c>
       <c r="H1" s="78" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -10576,7 +10931,7 @@
         <v>199</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>200</v>
@@ -10589,13 +10944,13 @@
     </row>
     <row r="4" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
@@ -10605,13 +10960,13 @@
     </row>
     <row r="5" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="81"/>
       <c r="E5" s="81"/>
@@ -10649,16 +11004,16 @@
     </row>
     <row r="8" spans="1:8" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="79" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
@@ -10667,16 +11022,16 @@
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
@@ -10685,16 +11040,16 @@
     </row>
     <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="85"/>
@@ -10703,17 +11058,17 @@
     </row>
     <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="79" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D11" s="81"/>
       <c r="E11" s="81" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
@@ -10721,17 +11076,17 @@
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="81" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F12" s="81"/>
       <c r="G12" s="81"/>
@@ -10739,17 +11094,17 @@
     </row>
     <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D13" s="81"/>
       <c r="E13" s="81" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -10757,13 +11112,13 @@
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="79" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
@@ -10775,128 +11130,128 @@
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="87" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
       <c r="G16" s="81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
       <c r="G17" s="81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="79" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="79" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
       <c r="H19" s="81" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
       <c r="G20" s="81"/>
       <c r="H20" s="81" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E21" s="81"/>
       <c r="F21" s="87" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G21" s="81" t="b">
         <v>1</v>
@@ -10905,39 +11260,39 @@
     </row>
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="81" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F23" s="81"/>
       <c r="G23" s="81" t="b">
@@ -10947,81 +11302,81 @@
     </row>
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="87" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G24" s="81"/>
       <c r="H24" s="81" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F25" s="88">
         <v>7</v>
       </c>
       <c r="G25" s="81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H25" s="81" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="79" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F26" s="81"/>
       <c r="G26" s="81"/>
       <c r="H26" s="81" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
@@ -11031,40 +11386,40 @@
     </row>
     <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E28" s="81"/>
       <c r="F28" s="81">
         <v>10</v>
       </c>
       <c r="G28" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="H28" s="81" t="s">
         <v>638</v>
-      </c>
-      <c r="H28" s="81" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E29" s="81"/>
       <c r="F29" s="81"/>
@@ -11075,35 +11430,35 @@
     </row>
     <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="81" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F30" s="81"/>
       <c r="G30" s="81" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="81" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
@@ -11112,21 +11467,21 @@
       </c>
       <c r="G31" s="81"/>
       <c r="H31" s="81" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="79" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>193</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="81">
@@ -11134,7 +11489,7 @@
       </c>
       <c r="G32" s="81"/>
       <c r="H32" s="81" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -11165,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -11173,7 +11528,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
